--- a/biology/Botanique/Bromelia_humilis/Bromelia_humilis.xlsx
+++ b/biology/Botanique/Bromelia_humilis/Bromelia_humilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bromelia humilis est une espèce de plante de la famille des Bromeliaceae, originaire d'Amérique du Sud principalement du Venezuela d'où pour certaines publications, elle serait endémique.
 </t>
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bromelia lasiantha Willd. ex Schult. &amp; Schult.f.[1],[2] ;
-Bromelia lasiantha Willd. ex Mez[1] ;
-Karatas humilis (Jacq.) E.Morren[1],[2] ;
-Karatas lasiantha (Willd. ex Schult. &amp; Schult.f.) Harms[1],[2] ;
-Madvigia humilis (Jacq.) Liebm. ex Antoine[1],[2] ;
-Nidularium humile (Jacq.) Regel[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bromelia lasiantha Willd. ex Schult. &amp; Schult.f., ;
+Bromelia lasiantha Willd. ex Mez ;
+Karatas humilis (Jacq.) E.Morren, ;
+Karatas lasiantha (Willd. ex Schult. &amp; Schult.f.) Harms, ;
+Madvigia humilis (Jacq.) Liebm. ex Antoine, ;
+Nidularium humile (Jacq.) Regel.</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce serait endémique du Venezuela[3] mais se rencontrerait également à Trinité-et-Tobago mais éteinte à Aruba[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce serait endémique du Venezuela mais se rencontrerait également à Trinité-et-Tobago mais éteinte à Aruba.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est hémicryptophyte[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est hémicryptophyte.
 </t>
         </is>
       </c>
